--- a/DigSite/New Arcaism/uarm 2025 1/PensCrit/uncritic review.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/PensCrit/uncritic review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\PensCrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587035E2-08ED-4892-904F-60F08E9AFAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BCD319-7D0D-4BCA-A4AF-9DDE10F32740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A8EBE080-1C1C-4D4B-82B6-FE555C66D209}"/>
+    <workbookView xWindow="8130" yWindow="135" windowWidth="12690" windowHeight="10665" xr2:uid="{A8EBE080-1C1C-4D4B-82B6-FE555C66D209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>pens crit</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Estefanía Arcos Tejeda</t>
   </si>
   <si>
-    <t>Leonela Moron Lugo</t>
-  </si>
-  <si>
     <t>Fabiana Nicole Mireles Milla</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>Maria Nieves Llacta</t>
   </si>
   <si>
-    <t>Ligne Gerson Torias?</t>
-  </si>
-  <si>
     <t>Sebastían Torres Esquivel</t>
   </si>
   <si>
@@ -100,6 +94,18 @@
   </si>
   <si>
     <t>Natalia Villanca</t>
+  </si>
+  <si>
+    <t>pc2</t>
+  </si>
+  <si>
+    <t>pc3</t>
+  </si>
+  <si>
+    <t>Timias Shawit Ligne Gerson</t>
+  </si>
+  <si>
+    <t>Leonela Morán Lugo</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82953B3D-AD14-4CA1-80A6-89EBADACDA15}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +468,7 @@
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,16 +478,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -489,164 +504,224 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>20</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/DigSite/New Arcaism/uarm 2025 1/PensCrit/uncritic review.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/PensCrit/uncritic review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\PensCrit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BCD319-7D0D-4BCA-A4AF-9DDE10F32740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB32F00A-3843-4C8F-A8AA-C1167C56278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="135" windowWidth="12690" windowHeight="10665" xr2:uid="{A8EBE080-1C1C-4D4B-82B6-FE555C66D209}"/>
+    <workbookView xWindow="9870" yWindow="120" windowWidth="10395" windowHeight="10665" xr2:uid="{A8EBE080-1C1C-4D4B-82B6-FE555C66D209}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>pens crit</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>Leonela Morán Lugo</t>
+  </si>
+  <si>
+    <t>Cáceda Caomaña</t>
+  </si>
+  <si>
+    <t>Malpartida Cereceda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portillo Tinoco</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suarez Castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avila</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Solis Raymundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arcos Tejeda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morán Lugo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mireles Milla</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Esquén Cueva</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rojas Cusi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Silva Vara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tafur Santillán</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nieves Llacta</t>
+  </si>
+  <si>
+    <t>Ligne Gerson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Torres Esquivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luciano de la Cruz</t>
+  </si>
+  <si>
+    <t>Peña Manchego</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diaz Huaytan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Choquemamani Collanqui</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chanta Arica</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Villanca</t>
   </si>
 </sst>
 </file>
@@ -457,18 +523,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82953B3D-AD14-4CA1-80A6-89EBADACDA15}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -495,16 +563,53 @@
       <c r="E2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <f>D2+E2+F2</f>
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <f>G2/3</f>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="0">D3+E3+F3</f>
+        <v>51</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="1">G3/3</f>
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>5</v>
       </c>
@@ -514,8 +619,25 @@
       <c r="E4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>6</v>
       </c>
@@ -525,8 +647,25 @@
       <c r="E5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -536,8 +675,25 @@
       <c r="E6">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -547,8 +703,25 @@
       <c r="E7">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>9</v>
       </c>
@@ -558,8 +731,25 @@
       <c r="E8">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>26</v>
       </c>
@@ -569,8 +759,25 @@
       <c r="E9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>10</v>
       </c>
@@ -580,8 +787,25 @@
       <c r="E10">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>16.333333333333332</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>11</v>
       </c>
@@ -591,8 +815,25 @@
       <c r="E11">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>12</v>
       </c>
@@ -602,8 +843,25 @@
       <c r="E12">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -613,8 +871,25 @@
       <c r="E13">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>17</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -624,8 +899,25 @@
       <c r="E14">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -635,8 +927,25 @@
       <c r="E15">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>18</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -646,8 +955,25 @@
       <c r="E16">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>17</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>15.666666666666666</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>16</v>
       </c>
@@ -657,8 +983,25 @@
       <c r="E17">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>17</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>17.333333333333332</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>17</v>
       </c>
@@ -668,8 +1011,25 @@
       <c r="E18">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>19</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -679,8 +1039,25 @@
       <c r="E19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -690,8 +1067,25 @@
       <c r="E20">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -701,8 +1095,25 @@
       <c r="E21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>17.666666666666668</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>21</v>
       </c>
@@ -712,8 +1123,25 @@
       <c r="E22">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="I22" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -723,8 +1151,28 @@
       <c r="E23">
         <v>17</v>
       </c>
+      <c r="F23">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J23">
+    <sortCondition ref="I2:I23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>